--- a/portfolios/sml_equity/profit_reports/trend/Breakout_year.xlsx
+++ b/portfolios/sml_equity/profit_reports/trend/Breakout_year.xlsx
@@ -486,46 +486,46 @@
         <v>16</v>
       </c>
       <c r="C2">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D2">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E2">
         <v>56</v>
       </c>
       <c r="F2">
-        <v>1280.458892499987</v>
+        <v>2023.455715725201</v>
       </c>
       <c r="G2">
-        <v>-1523.999305262757</v>
+        <v>-1757.143969265623</v>
       </c>
       <c r="H2">
-        <v>0.1282390683649834</v>
+        <v>0.2035205594775814</v>
       </c>
       <c r="I2">
-        <v>-0.1511975377190772</v>
+        <v>-0.174833651311214</v>
       </c>
       <c r="J2">
-        <v>-0.02644905286012159</v>
+        <v>-0.04646347265072986</v>
       </c>
       <c r="K2">
-        <v>32011.47231249966</v>
+        <v>38445.65859877883</v>
       </c>
       <c r="L2">
-        <v>-47243.97846314546</v>
+        <v>-65014.32686282805</v>
       </c>
       <c r="M2">
-        <v>0.4464285714285715</v>
+        <v>0.3392857142857143</v>
       </c>
       <c r="N2">
-        <v>0.8401965067032753</v>
+        <v>1.151559434581152</v>
       </c>
       <c r="O2">
-        <v>0.6775778279865121</v>
+        <v>0.5913413312714022</v>
       </c>
       <c r="P2">
-        <v>-15232.5061506458</v>
+        <v>-26568.66826404922</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -536,46 +536,46 @@
         <v>16</v>
       </c>
       <c r="C3">
-        <v>135</v>
+        <v>76</v>
       </c>
       <c r="D3">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="E3">
-        <v>236</v>
+        <v>204</v>
       </c>
       <c r="F3">
-        <v>1862.718589204869</v>
+        <v>2659.122434410413</v>
       </c>
       <c r="G3">
-        <v>-985.1681846492423</v>
+        <v>-1266.878094258235</v>
       </c>
       <c r="H3">
-        <v>0.1861921726425745</v>
+        <v>0.2653458717649267</v>
       </c>
       <c r="I3">
-        <v>-0.09844528121902828</v>
+        <v>-0.1266188768220287</v>
       </c>
       <c r="J3">
-        <v>0.06437699111705809</v>
+        <v>0.01940720598487632</v>
       </c>
       <c r="K3">
-        <v>251467.0095426572</v>
+        <v>202093.3050151914</v>
       </c>
       <c r="L3">
-        <v>-99501.98664957349</v>
+        <v>-162160.3960650541</v>
       </c>
       <c r="M3">
-        <v>0.5720338983050848</v>
+        <v>0.3725490196078431</v>
       </c>
       <c r="N3">
-        <v>1.89076202239323</v>
+        <v>2.098956834491124</v>
       </c>
       <c r="O3">
-        <v>2.527256168545406</v>
+        <v>1.246255620479105</v>
       </c>
       <c r="P3">
-        <v>151965.0228930837</v>
+        <v>39932.90895013732</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -586,46 +586,46 @@
         <v>16</v>
       </c>
       <c r="C4">
-        <v>686</v>
+        <v>459</v>
       </c>
       <c r="D4">
-        <v>413</v>
+        <v>252</v>
       </c>
       <c r="E4">
-        <v>1099</v>
+        <v>711</v>
       </c>
       <c r="F4">
-        <v>1862.565709679832</v>
+        <v>3515.771750332336</v>
       </c>
       <c r="G4">
-        <v>-1102.903507645949</v>
+        <v>-1461.611037167878</v>
       </c>
       <c r="H4">
-        <v>0.1853691040912345</v>
+        <v>0.3506835221172528</v>
       </c>
       <c r="I4">
-        <v>-0.1096966145387443</v>
+        <v>-0.1450228047352465</v>
       </c>
       <c r="J4">
-        <v>0.07448453466977752</v>
+        <v>0.1749901404480124</v>
       </c>
       <c r="K4">
-        <v>1277720.076840366</v>
+        <v>1613739.233402542</v>
       </c>
       <c r="L4">
-        <v>-455499.1486577766</v>
+        <v>-368325.9813663051</v>
       </c>
       <c r="M4">
-        <v>0.6242038216560509</v>
+        <v>0.6455696202531646</v>
       </c>
       <c r="N4">
-        <v>1.688783920594573</v>
+        <v>2.405408594303411</v>
       </c>
       <c r="O4">
-        <v>2.80509871556387</v>
+        <v>4.381279939624071</v>
       </c>
       <c r="P4">
-        <v>822220.9281825891</v>
+        <v>1245413.252036237</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -636,46 +636,46 @@
         <v>16</v>
       </c>
       <c r="C5">
-        <v>278</v>
+        <v>169</v>
       </c>
       <c r="D5">
-        <v>311</v>
+        <v>226</v>
       </c>
       <c r="E5">
-        <v>589</v>
+        <v>395</v>
       </c>
       <c r="F5">
-        <v>2389.133166531665</v>
+        <v>3985.434833530434</v>
       </c>
       <c r="G5">
-        <v>-1206.192862448002</v>
+        <v>-1478.200596174383</v>
       </c>
       <c r="H5">
-        <v>0.238621928364193</v>
+        <v>0.3991966649029029</v>
       </c>
       <c r="I5">
-        <v>-0.1187492545484874</v>
+        <v>-0.145709615820076</v>
       </c>
       <c r="J5">
-        <v>0.04992508984832945</v>
+        <v>0.08742750175507198</v>
       </c>
       <c r="K5">
-        <v>664179.020295803</v>
+        <v>673538.486866643</v>
       </c>
       <c r="L5">
-        <v>-375125.9802213284</v>
+        <v>-334073.3347354103</v>
       </c>
       <c r="M5">
-        <v>0.4719864176570459</v>
+        <v>0.4278481012658228</v>
       </c>
       <c r="N5">
-        <v>1.980722354535288</v>
+        <v>2.69613937637749</v>
       </c>
       <c r="O5">
-        <v>1.770549242960805</v>
+        <v>2.016139622158389</v>
       </c>
       <c r="P5">
-        <v>289053.0400744746</v>
+        <v>339465.1521312327</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -686,46 +686,46 @@
         <v>16</v>
       </c>
       <c r="C6">
-        <v>225</v>
+        <v>151</v>
       </c>
       <c r="D6">
-        <v>246</v>
+        <v>162</v>
       </c>
       <c r="E6">
-        <v>471</v>
+        <v>313</v>
       </c>
       <c r="F6">
-        <v>1784.513077454116</v>
+        <v>3396.930002765135</v>
       </c>
       <c r="G6">
-        <v>-1140.770641446823</v>
+        <v>-1465.858696723967</v>
       </c>
       <c r="H6">
-        <v>0.1749425005827609</v>
+        <v>0.3354916368576785</v>
       </c>
       <c r="I6">
-        <v>-0.1128027778208429</v>
+        <v>-0.1448727135832827</v>
       </c>
       <c r="J6">
-        <v>0.02465515772227988</v>
+        <v>0.08686855452082315</v>
       </c>
       <c r="K6">
-        <v>401515.4424271763</v>
+        <v>512936.4304175353</v>
       </c>
       <c r="L6">
-        <v>-280629.5777959183</v>
+        <v>-237469.1088692828</v>
       </c>
       <c r="M6">
-        <v>0.4777070063694268</v>
+        <v>0.4824281150159744</v>
       </c>
       <c r="N6">
-        <v>1.564304876562078</v>
+        <v>2.317365248340035</v>
       </c>
       <c r="O6">
-        <v>1.430766655392147</v>
+        <v>2.160013287032994</v>
       </c>
       <c r="P6">
-        <v>120885.864631258</v>
+        <v>275467.3215482525</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -736,46 +736,46 @@
         <v>16</v>
       </c>
       <c r="C7">
-        <v>192</v>
+        <v>133</v>
       </c>
       <c r="D7">
-        <v>181</v>
+        <v>155</v>
       </c>
       <c r="E7">
-        <v>373</v>
+        <v>288</v>
       </c>
       <c r="F7">
-        <v>1901.512847926881</v>
+        <v>3336.579013530943</v>
       </c>
       <c r="G7">
-        <v>-1073.008780836929</v>
+        <v>-1294.467023875952</v>
       </c>
       <c r="H7">
-        <v>0.1972881047450029</v>
+        <v>0.343679563965126</v>
       </c>
       <c r="I7">
-        <v>-0.1080249365572713</v>
+        <v>-0.1302561843829433</v>
       </c>
       <c r="J7">
-        <v>0.04913351901923448</v>
+        <v>0.08860997718057478</v>
       </c>
       <c r="K7">
-        <v>365090.4668019614</v>
+        <v>443765.0087996155</v>
       </c>
       <c r="L7">
-        <v>-194214.5893314842</v>
+        <v>-200642.3887007725</v>
       </c>
       <c r="M7">
-        <v>0.514745308310992</v>
+        <v>0.4618055555555556</v>
       </c>
       <c r="N7">
-        <v>1.772131674862654</v>
+        <v>2.577569727145623</v>
       </c>
       <c r="O7">
-        <v>1.879830284937181</v>
+        <v>2.21172112071205</v>
       </c>
       <c r="P7">
-        <v>170875.8774704773</v>
+        <v>243122.6200988429</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -786,46 +786,46 @@
         <v>16</v>
       </c>
       <c r="C8">
-        <v>189</v>
+        <v>97</v>
       </c>
       <c r="D8">
-        <v>228</v>
+        <v>166</v>
       </c>
       <c r="E8">
-        <v>417</v>
+        <v>263</v>
       </c>
       <c r="F8">
-        <v>1899.587705523452</v>
+        <v>2893.18213236662</v>
       </c>
       <c r="G8">
-        <v>-1137.314881521578</v>
+        <v>-1484.115858605109</v>
       </c>
       <c r="H8">
-        <v>0.1915441000171644</v>
+        <v>0.2883639850999758</v>
       </c>
       <c r="I8">
-        <v>-0.1142149109544952</v>
+        <v>-0.1487136588552809</v>
       </c>
       <c r="J8">
-        <v>0.02436651128445848</v>
+        <v>0.01248988283163889</v>
       </c>
       <c r="K8">
-        <v>359022.0763439325</v>
+        <v>280638.6668395621</v>
       </c>
       <c r="L8">
-        <v>-259307.7929869195</v>
+        <v>-246363.232528448</v>
       </c>
       <c r="M8">
-        <v>0.4532374100719425</v>
+        <v>0.3688212927756654</v>
       </c>
       <c r="N8">
-        <v>1.670239030884792</v>
+        <v>1.94943145145411</v>
       </c>
       <c r="O8">
-        <v>1.384540249286079</v>
+        <v>1.139125607174992</v>
       </c>
       <c r="P8">
-        <v>99714.28335701296</v>
+        <v>34275.43431111405</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -836,46 +836,46 @@
         <v>16</v>
       </c>
       <c r="C9">
+        <v>19</v>
+      </c>
+      <c r="D9">
         <v>28</v>
-      </c>
-      <c r="D9">
-        <v>19</v>
       </c>
       <c r="E9">
         <v>47</v>
       </c>
       <c r="F9">
-        <v>1894.797163255725</v>
+        <v>1225.213359007508</v>
       </c>
       <c r="G9">
-        <v>-1240.679051987005</v>
+        <v>-1324.689633966131</v>
       </c>
       <c r="H9">
-        <v>0.185560105152461</v>
+        <v>0.1166077775345663</v>
       </c>
       <c r="I9">
-        <v>-0.1261750476669704</v>
+        <v>-0.1349916419456071</v>
       </c>
       <c r="J9">
-        <v>0.05953951145949938</v>
+        <v>-0.03328123832596255</v>
       </c>
       <c r="K9">
-        <v>53054.32057116031</v>
+        <v>23279.05382114265</v>
       </c>
       <c r="L9">
-        <v>-23572.90198775309</v>
+        <v>-37091.30975105168</v>
       </c>
       <c r="M9">
-        <v>0.5957446808510638</v>
+        <v>0.4042553191489361</v>
       </c>
       <c r="N9">
-        <v>1.527225885067633</v>
+        <v>0.9249059761562483</v>
       </c>
       <c r="O9">
-        <v>2.250648672731248</v>
+        <v>0.6276147695345969</v>
       </c>
       <c r="P9">
-        <v>29481.41858340722</v>
+        <v>-13812.25592990903</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -886,46 +886,46 @@
         <v>16</v>
       </c>
       <c r="C10">
-        <v>462</v>
+        <v>317</v>
       </c>
       <c r="D10">
-        <v>445</v>
+        <v>370</v>
       </c>
       <c r="E10">
-        <v>907</v>
+        <v>687</v>
       </c>
       <c r="F10">
-        <v>2209.725134409125</v>
+        <v>3487.484046433025</v>
       </c>
       <c r="G10">
-        <v>-1243.624605548827</v>
+        <v>-1423.738000469894</v>
       </c>
       <c r="H10">
-        <v>0.2191411275771661</v>
+        <v>0.3468196139453806</v>
       </c>
       <c r="I10">
-        <v>-0.1237585064050921</v>
+        <v>-0.1417020697746878</v>
       </c>
       <c r="J10">
-        <v>0.05090481321982888</v>
+        <v>0.08371477700735255</v>
       </c>
       <c r="K10">
-        <v>1020893.012097016</v>
+        <v>1105532.44271927</v>
       </c>
       <c r="L10">
-        <v>-553412.9494692278</v>
+        <v>-526783.060173861</v>
       </c>
       <c r="M10">
-        <v>0.5093715545755237</v>
+        <v>0.4614264919941776</v>
       </c>
       <c r="N10">
-        <v>1.776842565312501</v>
+        <v>2.449526559860036</v>
       </c>
       <c r="O10">
-        <v>1.844721944212082</v>
+        <v>2.098648431015221</v>
       </c>
       <c r="P10">
-        <v>467480.0626277886</v>
+        <v>578749.382545409</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -936,46 +936,46 @@
         <v>16</v>
       </c>
       <c r="C11">
-        <v>354</v>
+        <v>240</v>
       </c>
       <c r="D11">
-        <v>329</v>
+        <v>281</v>
       </c>
       <c r="E11">
-        <v>683</v>
+        <v>521</v>
       </c>
       <c r="F11">
-        <v>1645.953515776669</v>
+        <v>2703.860106109207</v>
       </c>
       <c r="G11">
-        <v>-1154.440399374928</v>
+        <v>-1409.904036393012</v>
       </c>
       <c r="H11">
-        <v>0.1650089990133692</v>
+        <v>0.2700878246327166</v>
       </c>
       <c r="I11">
-        <v>-0.1140389236609864</v>
+        <v>-0.1394988405077706</v>
       </c>
       <c r="J11">
-        <v>0.03059206407945549</v>
+        <v>0.04917831809821207</v>
       </c>
       <c r="K11">
-        <v>582667.5445849407</v>
+        <v>648926.4254662098</v>
       </c>
       <c r="L11">
-        <v>-379810.8913943514</v>
+        <v>-396183.0342264363</v>
       </c>
       <c r="M11">
-        <v>0.5183016105417276</v>
+        <v>0.4606525911708254</v>
       </c>
       <c r="N11">
-        <v>1.425758763005757</v>
+        <v>1.91776180244618</v>
       </c>
       <c r="O11">
-        <v>1.534099094541148</v>
+        <v>1.637946023441578</v>
       </c>
       <c r="P11">
-        <v>202856.6531905893</v>
+        <v>252743.3912397735</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -986,46 +986,46 @@
         <v>16</v>
       </c>
       <c r="C12">
-        <v>199</v>
+        <v>95</v>
       </c>
       <c r="D12">
-        <v>245</v>
+        <v>179</v>
       </c>
       <c r="E12">
-        <v>444</v>
+        <v>274</v>
       </c>
       <c r="F12">
-        <v>1917.51976525413</v>
+        <v>3692.408231267399</v>
       </c>
       <c r="G12">
-        <v>-1270.518808945243</v>
+        <v>-1478.119580517253</v>
       </c>
       <c r="H12">
-        <v>0.1938383537671313</v>
+        <v>0.3796808991826974</v>
       </c>
       <c r="I12">
-        <v>-0.1265932773962615</v>
+        <v>-0.1474264096549064</v>
       </c>
       <c r="J12">
-        <v>0.0170236023368808</v>
+        <v>0.03532977406616068</v>
       </c>
       <c r="K12">
-        <v>381586.4332855716</v>
+        <v>350778.7819704029</v>
       </c>
       <c r="L12">
-        <v>-311277.1081915846</v>
+        <v>-264583.4049125884</v>
       </c>
       <c r="M12">
-        <v>0.4481981981981982</v>
+        <v>0.3467153284671533</v>
       </c>
       <c r="N12">
-        <v>1.509241541135478</v>
+        <v>2.498044326004583</v>
       </c>
       <c r="O12">
-        <v>1.225873741575346</v>
+        <v>1.325777714918633</v>
       </c>
       <c r="P12">
-        <v>70309.32509398699</v>
+        <v>86195.37705781456</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1036,46 +1036,46 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>384</v>
+        <v>252</v>
       </c>
       <c r="D13">
-        <v>384</v>
+        <v>292</v>
       </c>
       <c r="E13">
-        <v>768</v>
+        <v>544</v>
       </c>
       <c r="F13">
-        <v>2025.69041329625</v>
+        <v>4061.933210393735</v>
       </c>
       <c r="G13">
-        <v>-1180.896892677322</v>
+        <v>-1532.938010490335</v>
       </c>
       <c r="H13">
-        <v>0.203524819731337</v>
+        <v>0.4077591433576939</v>
       </c>
       <c r="I13">
-        <v>-0.118011888698449</v>
+        <v>-0.1532105081895778</v>
       </c>
       <c r="J13">
-        <v>0.04275646551644394</v>
+        <v>0.1066504333359967</v>
       </c>
       <c r="K13">
-        <v>777865.1187057605</v>
+        <v>1023607.169019221</v>
       </c>
       <c r="L13">
-        <v>-453464.4067880916</v>
+        <v>-447617.899063178</v>
       </c>
       <c r="M13">
-        <v>0.5</v>
+        <v>0.4632352941176471</v>
       </c>
       <c r="N13">
-        <v>1.715382965149157</v>
+        <v>2.649770038055525</v>
       </c>
       <c r="O13">
-        <v>1.715382965149158</v>
+        <v>2.286787841061616</v>
       </c>
       <c r="P13">
-        <v>324400.7119176688</v>
+        <v>575989.2699560431</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1086,46 +1086,46 @@
         <v>16</v>
       </c>
       <c r="C14">
-        <v>691</v>
+        <v>439</v>
       </c>
       <c r="D14">
-        <v>534</v>
+        <v>333</v>
       </c>
       <c r="E14">
-        <v>1225</v>
+        <v>772</v>
       </c>
       <c r="F14">
-        <v>1644.512799197282</v>
+        <v>2949.995968620971</v>
       </c>
       <c r="G14">
-        <v>-1071.781869081381</v>
+        <v>-1371.826974241163</v>
       </c>
       <c r="H14">
-        <v>0.1649779493812126</v>
+        <v>0.2954755674806395</v>
       </c>
       <c r="I14">
-        <v>-0.1072990306370529</v>
+        <v>-0.1373189026705082</v>
       </c>
       <c r="J14">
-        <v>0.04628741278549516</v>
+        <v>0.1087909061330591</v>
       </c>
       <c r="K14">
-        <v>1136358.344245321</v>
+        <v>1295048.230224607</v>
       </c>
       <c r="L14">
-        <v>-572331.5180894571</v>
+        <v>-456818.3824223069</v>
       </c>
       <c r="M14">
-        <v>0.5640816326530612</v>
+        <v>0.5686528497409327</v>
       </c>
       <c r="N14">
-        <v>1.534372661674885</v>
+        <v>2.150414027434317</v>
       </c>
       <c r="O14">
-        <v>1.985489717635479</v>
+        <v>2.834930204335334</v>
       </c>
       <c r="P14">
-        <v>564026.8261558643</v>
+        <v>838229.8478023004</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1136,46 +1136,46 @@
         <v>16</v>
       </c>
       <c r="C15">
-        <v>223</v>
+        <v>143</v>
       </c>
       <c r="D15">
-        <v>322</v>
+        <v>245</v>
       </c>
       <c r="E15">
-        <v>545</v>
+        <v>388</v>
       </c>
       <c r="F15">
-        <v>1718.535717837086</v>
+        <v>2785.829363638858</v>
       </c>
       <c r="G15">
-        <v>-1253.342870808629</v>
+        <v>-1410.398998185829</v>
       </c>
       <c r="H15">
-        <v>0.1712244206313421</v>
+        <v>0.2771690347713198</v>
       </c>
       <c r="I15">
-        <v>-0.1245037858622517</v>
+        <v>-0.1403765942487842</v>
       </c>
       <c r="J15">
-        <v>-0.003499400452946376</v>
+        <v>0.01351264531274894</v>
       </c>
       <c r="K15">
-        <v>383233.4650776704</v>
+        <v>398373.5990003567</v>
       </c>
       <c r="L15">
-        <v>-403576.4044003787</v>
+        <v>-345547.7545555281</v>
       </c>
       <c r="M15">
-        <v>0.4091743119266055</v>
+        <v>0.3685567010309279</v>
       </c>
       <c r="N15">
-        <v>1.371161681183318</v>
+        <v>1.975206567235386</v>
       </c>
       <c r="O15">
-        <v>0.9495933382108075</v>
+        <v>1.152875669855756</v>
       </c>
       <c r="P15">
-        <v>-20342.93932270829</v>
+        <v>52825.84444482869</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1186,46 +1186,46 @@
         <v>16</v>
       </c>
       <c r="C16">
-        <v>176</v>
+        <v>101</v>
       </c>
       <c r="D16">
-        <v>219</v>
+        <v>169</v>
       </c>
       <c r="E16">
-        <v>395</v>
+        <v>270</v>
       </c>
       <c r="F16">
-        <v>1851.064433503964</v>
+        <v>2542.021558192822</v>
       </c>
       <c r="G16">
-        <v>-1256.582328564163</v>
+        <v>-1650.468174679579</v>
       </c>
       <c r="H16">
-        <v>0.1853007121321277</v>
+        <v>0.255111345037014</v>
       </c>
       <c r="I16">
-        <v>-0.1252312507297306</v>
+        <v>-0.1645412831531281</v>
       </c>
       <c r="J16">
-        <v>0.01313235803909749</v>
+        <v>-0.007560114830149</v>
       </c>
       <c r="K16">
-        <v>325787.3402966976</v>
+        <v>256744.177377475</v>
       </c>
       <c r="L16">
-        <v>-275191.5299555517</v>
+        <v>-278929.1215208489</v>
       </c>
       <c r="M16">
-        <v>0.4455696202531645</v>
+        <v>0.3740740740740741</v>
       </c>
       <c r="N16">
-        <v>1.473094433549044</v>
+        <v>1.540182111470479</v>
       </c>
       <c r="O16">
-        <v>1.183856713719779</v>
+        <v>0.9204638654350202</v>
       </c>
       <c r="P16">
-        <v>50595.81034114584</v>
+        <v>-22184.94414337384</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1236,46 +1236,46 @@
         <v>16</v>
       </c>
       <c r="C17">
-        <v>573</v>
+        <v>377</v>
       </c>
       <c r="D17">
-        <v>449</v>
+        <v>389</v>
       </c>
       <c r="E17">
-        <v>1022</v>
+        <v>766</v>
       </c>
       <c r="F17">
-        <v>1534.505639055364</v>
+        <v>2499.623027194526</v>
       </c>
       <c r="G17">
-        <v>-1180.124317001442</v>
+        <v>-1466.390514183418</v>
       </c>
       <c r="H17">
-        <v>0.1535855561209125</v>
+        <v>0.2502988253769945</v>
       </c>
       <c r="I17">
-        <v>-0.1170860102239105</v>
+        <v>-0.1454475982551954</v>
       </c>
       <c r="J17">
-        <v>0.03467016151345109</v>
+        <v>0.04932577212252722</v>
       </c>
       <c r="K17">
-        <v>879271.731178724</v>
+        <v>942357.8812523355</v>
       </c>
       <c r="L17">
-        <v>-529875.8183336478</v>
+        <v>-570425.91001735</v>
       </c>
       <c r="M17">
-        <v>0.5606653620352251</v>
+        <v>0.4921671018276763</v>
       </c>
       <c r="N17">
-        <v>1.300291517553306</v>
+        <v>1.704609381346468</v>
       </c>
       <c r="O17">
-        <v>1.659392070285177</v>
+        <v>1.652025030250945</v>
       </c>
       <c r="P17">
-        <v>349395.9128450762</v>
+        <v>371931.9712349855</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1286,46 +1286,46 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>508</v>
+        <v>315</v>
       </c>
       <c r="D18">
-        <v>602</v>
+        <v>404</v>
       </c>
       <c r="E18">
-        <v>1110</v>
+        <v>719</v>
       </c>
       <c r="F18">
-        <v>1686.17247655394</v>
+        <v>2714.222590407798</v>
       </c>
       <c r="G18">
-        <v>-1157.011980792361</v>
+        <v>-1483.622255727249</v>
       </c>
       <c r="H18">
-        <v>0.1681849429719184</v>
+        <v>0.2707503044128109</v>
       </c>
       <c r="I18">
-        <v>-0.1153111589072851</v>
+        <v>-0.1478941101394559</v>
       </c>
       <c r="J18">
-        <v>0.01443300303382791</v>
+        <v>0.0355175596574344</v>
       </c>
       <c r="K18">
-        <v>856575.6180894023</v>
+        <v>854980.1159784566</v>
       </c>
       <c r="L18">
-        <v>-696521.2124370014</v>
+        <v>-599383.3913138085</v>
       </c>
       <c r="M18">
-        <v>0.4576576576576576</v>
+        <v>0.4381084840055633</v>
       </c>
       <c r="N18">
-        <v>1.457350921637987</v>
+        <v>1.829456642302341</v>
       </c>
       <c r="O18">
-        <v>1.229791143176242</v>
+        <v>1.426432778032766</v>
       </c>
       <c r="P18">
-        <v>160054.4056524009</v>
+        <v>255596.7246646481</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1336,46 +1336,46 @@
         <v>16</v>
       </c>
       <c r="C19">
-        <v>396</v>
+        <v>211</v>
       </c>
       <c r="D19">
-        <v>515</v>
+        <v>425</v>
       </c>
       <c r="E19">
-        <v>911</v>
+        <v>636</v>
       </c>
       <c r="F19">
-        <v>1744.376930220911</v>
+        <v>3250.501439966892</v>
       </c>
       <c r="G19">
-        <v>-1118.003204153722</v>
+        <v>-1494.710566602336</v>
       </c>
       <c r="H19">
-        <v>0.1724226763172253</v>
+        <v>0.3212071353777778</v>
       </c>
       <c r="I19">
-        <v>-0.1116435654085961</v>
+        <v>-0.1493090841011612</v>
       </c>
       <c r="J19">
-        <v>0.01183638159845687</v>
+        <v>0.00678985034861256</v>
       </c>
       <c r="K19">
-        <v>690773.2643674812</v>
+        <v>685855.8038330143</v>
       </c>
       <c r="L19">
-        <v>-575771.6501391667</v>
+        <v>-635251.9908059925</v>
       </c>
       <c r="M19">
-        <v>0.4346871569703623</v>
+        <v>0.3317610062893082</v>
       </c>
       <c r="N19">
-        <v>1.560261118876959</v>
+        <v>2.174669472870383</v>
       </c>
       <c r="O19">
-        <v>1.199734763252963</v>
+        <v>1.079659432413296</v>
       </c>
       <c r="P19">
-        <v>115001.6142283145</v>
+        <v>50603.81302702182</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1386,46 +1386,46 @@
         <v>16</v>
       </c>
       <c r="C20">
-        <v>205</v>
+        <v>112</v>
       </c>
       <c r="D20">
-        <v>292</v>
+        <v>314</v>
       </c>
       <c r="E20">
-        <v>497</v>
+        <v>426</v>
       </c>
       <c r="F20">
-        <v>1858.685806867654</v>
+        <v>3142.936185147014</v>
       </c>
       <c r="G20">
-        <v>-1227.251636726786</v>
+        <v>-1636.154498776297</v>
       </c>
       <c r="H20">
-        <v>0.1855420415262796</v>
+        <v>0.3134494740534706</v>
       </c>
       <c r="I20">
-        <v>-0.1221477071418036</v>
+        <v>-0.1629852793269602</v>
       </c>
       <c r="J20">
-        <v>0.004766575508009406</v>
+        <v>-0.0377254380626216</v>
       </c>
       <c r="K20">
-        <v>381030.5904078689</v>
+        <v>352008.8527364655</v>
       </c>
       <c r="L20">
-        <v>-358357.4779242218</v>
+        <v>-513752.5126157572</v>
       </c>
       <c r="M20">
-        <v>0.4124748490945674</v>
+        <v>0.2629107981220657</v>
       </c>
       <c r="N20">
-        <v>1.514510758221494</v>
+        <v>1.92092873105667</v>
       </c>
       <c r="O20">
-        <v>1.063269539162349</v>
+        <v>0.685172031459704</v>
       </c>
       <c r="P20">
-        <v>22673.11248364713</v>
+        <v>-161743.6598792917</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1436,46 +1436,46 @@
         <v>16</v>
       </c>
       <c r="C21">
-        <v>466</v>
+        <v>198</v>
       </c>
       <c r="D21">
-        <v>623</v>
+        <v>514</v>
       </c>
       <c r="E21">
-        <v>1089</v>
+        <v>712</v>
       </c>
       <c r="F21">
-        <v>2332.593246298615</v>
+        <v>3486.361317093676</v>
       </c>
       <c r="G21">
-        <v>-1581.299035999496</v>
+        <v>-1718.42979870873</v>
       </c>
       <c r="H21">
-        <v>0.2322085715203897</v>
+        <v>0.3462711062050057</v>
       </c>
       <c r="I21">
-        <v>-0.1554368763982663</v>
+        <v>-0.1688371728405392</v>
       </c>
       <c r="J21">
-        <v>0.01044262656784368</v>
+        <v>-0.02559076939809819</v>
       </c>
       <c r="K21">
-        <v>1086988.452775155</v>
+        <v>690299.5407845477</v>
       </c>
       <c r="L21">
-        <v>-985149.2994276863</v>
+        <v>-883272.9165362868</v>
       </c>
       <c r="M21">
-        <v>0.4279155188246097</v>
+        <v>0.2780898876404495</v>
       </c>
       <c r="N21">
-        <v>1.475112039655578</v>
+        <v>2.028806367134353</v>
       </c>
       <c r="O21">
-        <v>1.10337433463804</v>
+        <v>0.7815246316976692</v>
       </c>
       <c r="P21">
-        <v>101839.1533474685</v>
+        <v>-192973.3757517391</v>
       </c>
     </row>
   </sheetData>
